--- a/biology/Zoologie/Apantesis/Apantesis.xlsx
+++ b/biology/Zoologie/Apantesis/Apantesis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apantesis est un genre de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Apantesis a été décrit en 1855 par l'entomologiste britannique Francis Walker. Son espèce type est Apantesis radians Walker, 1855, un synonyme d'Apantesis vittata (Fabricius, 1787)[1].
-En 2016, à la suite d'une étude de phylogénétique moléculaire, plusieurs autres genres d'Arctiina ont été mis en synonymie avec Apantesis[2]. Ses synonymes sont maintenant[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Apantesis a été décrit en 1855 par l'entomologiste britannique Francis Walker. Son espèce type est Apantesis radians Walker, 1855, un synonyme d'Apantesis vittata (Fabricius, 1787).
+En 2016, à la suite d'une étude de phylogénétique moléculaire, plusieurs autres genres d'Arctiina ont été mis en synonymie avec Apantesis. Ses synonymes sont maintenant :
 Grammia Rambur, 1866
 Orodemnias Wallengren, 1885
 Mimarctia Neumoegen &amp; Dyar, 1894
@@ -547,9 +561,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>genre Apantesis s.str.[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>genre Apantesis s.str. :
 Apantesis bicolor Hampson, 1904
 Apantesis carlotta Ferguson, 1985
 Apantesis nais (Drury, 1773)
